--- a/src/MenuData/Menu.xlsx
+++ b/src/MenuData/Menu.xlsx
@@ -2,30 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\quizReact\Klm menu components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\quizReact\hotel-menu\src\MenuData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Shorba and Soups" sheetId="1" r:id="rId1"/>
-    <sheet name="Salad" sheetId="2" r:id="rId2"/>
+    <sheet name="Rice" sheetId="2" r:id="rId2"/>
+    <sheet name="Dhai yoghurt" sheetId="3" r:id="rId3"/>
+    <sheet name="Noobles &amp; Pasta" sheetId="4" r:id="rId4"/>
+    <sheet name="Roti &amp; Bread" sheetId="5" r:id="rId5"/>
+    <sheet name="Beverages" sheetId="6" r:id="rId6"/>
+    <sheet name="Dessert" sheetId="7" r:id="rId7"/>
+    <sheet name="Salad" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="87">
   <si>
     <t>Dish Name</t>
   </si>
@@ -51,6 +52,9 @@
     <t>LEMON CORIANDER</t>
   </si>
   <si>
+    <t>100-130</t>
+  </si>
+  <si>
     <t>SWEET CORN</t>
   </si>
   <si>
@@ -66,6 +70,183 @@
     <t>MURG ADRAKI SHORBA</t>
   </si>
   <si>
+    <t>Dish name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>NIZAAMI TARKARI BIRYANI</t>
+  </si>
+  <si>
+    <t>The colourful combination of garden fresh vegetable and aromatic basmati cooked on dum</t>
+  </si>
+  <si>
+    <t>CHOICE OF PULAO</t>
+  </si>
+  <si>
+    <t>Subz/Green peas/Zeera</t>
+  </si>
+  <si>
+    <t>SADA CHAWAL</t>
+  </si>
+  <si>
+    <t>Streamed Rice</t>
+  </si>
+  <si>
+    <t>FRIED RICE</t>
+  </si>
+  <si>
+    <t>Sauté rice with chopped vegetables</t>
+  </si>
+  <si>
+    <t>VEGETABLE GINGER FRIED RICE</t>
+  </si>
+  <si>
+    <t>Sauté ginger flavoured rice</t>
+  </si>
+  <si>
+    <t>ONION MINT PULAO</t>
+  </si>
+  <si>
+    <t>KASHMIRI NAVRATAN PULAO</t>
+  </si>
+  <si>
+    <t>HYDERABAD DUM BIRYANI</t>
+  </si>
+  <si>
+    <t>NON VEG</t>
+  </si>
+  <si>
+    <t>Chicken/Mutton</t>
+  </si>
+  <si>
+    <t>Egg/Chicken</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>DAHI TADKE WALA/PLAIN</t>
+  </si>
+  <si>
+    <t>CHOICE OF RAITA</t>
+  </si>
+  <si>
+    <t>Boondi/Pineapple/Cucumber/Pudina/Mix vegetable</t>
+  </si>
+  <si>
+    <t>TRIPLE SZECHWAN NOODLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combination of crispy noodles,rice and boiled noodles with sautéed vegetables and szechwan sauce </t>
+  </si>
+  <si>
+    <t>VEGETABLE CHOPSUEY</t>
+  </si>
+  <si>
+    <t>HAKKA NOODLES</t>
+  </si>
+  <si>
+    <t>EGG/CHICKEN</t>
+  </si>
+  <si>
+    <t>CHOICE OF PASTA</t>
+  </si>
+  <si>
+    <t>Penne/spaghetti/Fuseli served with choice of sauce arrabbiata/Alfredo</t>
+  </si>
+  <si>
+    <t>SZECHWAN NOODLES</t>
+  </si>
+  <si>
+    <t>Spicy noodles sautéed with a combination of chicken</t>
+  </si>
+  <si>
+    <t>TANDOORI ROTI</t>
+  </si>
+  <si>
+    <t>PLAIN NAAN</t>
+  </si>
+  <si>
+    <t>CHEESE GARLIC NAAN</t>
+  </si>
+  <si>
+    <t>PUDINA/LACCHA PRANTHA</t>
+  </si>
+  <si>
+    <t>BUTTER NAAN</t>
+  </si>
+  <si>
+    <t>MISSI ROTI</t>
+  </si>
+  <si>
+    <t>BHARWAN KULCHA</t>
+  </si>
+  <si>
+    <t>Onian/paneer/aloo</t>
+  </si>
+  <si>
+    <t>MIRCHI PRANTHA</t>
+  </si>
+  <si>
+    <t>Lal/hari</t>
+  </si>
+  <si>
+    <t>ONION ROTI</t>
+  </si>
+  <si>
+    <t>BUTTER MILK(CHHAACH)</t>
+  </si>
+  <si>
+    <t>Iced butter milk tempered with freshly broiled cumin,gamish with coriander and green chilli</t>
+  </si>
+  <si>
+    <t>MINERAL WATER</t>
+  </si>
+  <si>
+    <t>SEASONAL FRESH FRUIT</t>
+  </si>
+  <si>
+    <t>CHOICE OF CANNED JUICE</t>
+  </si>
+  <si>
+    <t>COLD COFFEE</t>
+  </si>
+  <si>
+    <t>Plain/with ice cream</t>
+  </si>
+  <si>
+    <t>AERATED DRINKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRESH LIME SODA/WATER </t>
+  </si>
+  <si>
+    <t>HOT COFFEE</t>
+  </si>
+  <si>
+    <t>HOT TEA</t>
+  </si>
+  <si>
+    <t>MILK SHAKES</t>
+  </si>
+  <si>
+    <t>Vanilla,chocolate,strawberry,banana</t>
+  </si>
+  <si>
+    <t>GULAB JAMUN</t>
+  </si>
+  <si>
+    <t>CHOICE OF ICE CREAM</t>
+  </si>
+  <si>
+    <t>TOOTY FROOTY</t>
+  </si>
+  <si>
+    <t>TODAY'S SPECIAL</t>
+  </si>
+  <si>
     <t>GARDEN FRESH SALAD</t>
   </si>
   <si>
@@ -96,28 +277,37 @@
     <t>MURG TIKKA SALAD</t>
   </si>
   <si>
-    <t>100-130</t>
+    <t>260-290</t>
+  </si>
+  <si>
+    <t>120-90</t>
+  </si>
+  <si>
+    <t>250-275</t>
+  </si>
+  <si>
+    <t>120-150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -129,12 +319,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -146,9 +343,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,31 +618,26 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
+  <a:extLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="34.140625" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="60.28515625" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -468,7 +662,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -479,7 +673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -487,56 +681,56 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -545,29 +739,1345 @@
         <v>130</v>
       </c>
     </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="76.5703125" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>190</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>160</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>140</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>130</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>190</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3">
+        <v>240</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3">
+        <v>260</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3">
+        <v>260</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>120</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="84" customWidth="1"/>
+    <col min="5" max="6" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>250</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="76.85546875" customWidth="1"/>
+    <col min="5" max="6" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>150</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="6" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,9 +2091,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -592,9 +2102,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -603,9 +2113,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -614,9 +2124,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -625,9 +2135,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -636,9 +2146,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -647,9 +2157,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -658,9 +2168,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -669,9 +2179,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -680,9 +2190,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -691,7 +2201,88 @@
         <v>220</v>
       </c>
     </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
--- a/src/MenuData/Menu.xlsx
+++ b/src/MenuData/Menu.xlsx
@@ -9,24 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Shorba and Soups" sheetId="1" r:id="rId1"/>
-    <sheet name="Rice" sheetId="2" r:id="rId2"/>
-    <sheet name="Dhai yoghurt" sheetId="3" r:id="rId3"/>
-    <sheet name="Noobles &amp; Pasta" sheetId="4" r:id="rId4"/>
-    <sheet name="Roti &amp; Bread" sheetId="5" r:id="rId5"/>
-    <sheet name="Beverages" sheetId="6" r:id="rId6"/>
-    <sheet name="Dessert" sheetId="7" r:id="rId7"/>
-    <sheet name="Salad" sheetId="8" r:id="rId8"/>
+    <sheet name="Kababs &amp; starter" sheetId="2" r:id="rId2"/>
+    <sheet name="Main Course" sheetId="3" r:id="rId3"/>
+    <sheet name="Rice" sheetId="4" r:id="rId4"/>
+    <sheet name="Dhai yoghurt" sheetId="5" r:id="rId5"/>
+    <sheet name="Noobles &amp; Pasta" sheetId="6" r:id="rId6"/>
+    <sheet name="Roti &amp; Bread" sheetId="7" r:id="rId7"/>
+    <sheet name="Beverages" sheetId="8" r:id="rId8"/>
+    <sheet name="Dessert" sheetId="9" r:id="rId9"/>
+    <sheet name="Salad" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="334">
   <si>
     <t>Dish Name</t>
   </si>
@@ -70,10 +72,757 @@
     <t>MURG ADRAKI SHORBA</t>
   </si>
   <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>TANDOORI PANEER TIKKA</t>
+  </si>
+  <si>
+    <t>Cottage cheese chunks marinated in choice of marination</t>
+  </si>
+  <si>
+    <t>PANEER HARYALI TIKKA</t>
+  </si>
+  <si>
+    <t>Cube of paneer marinated in green minty masala and grilled in clay oven</t>
+  </si>
+  <si>
+    <t>TANDOORI PANEER SASHLIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paneer sashlik in tandoori style chef specially </t>
+  </si>
+  <si>
+    <t>ALOO NAZAKAT</t>
+  </si>
+  <si>
+    <t>Scooped potatoes stuffed with cottage cheese,dry fruits lightly seasoned with spices and roasted in tandoor</t>
+  </si>
+  <si>
+    <t>MUSHROOM KALI MIRCH</t>
+  </si>
+  <si>
+    <t>Button mushroom stuffed with cottage cheese,dry fruits lightly seasoned with spices and roasted in tandoor</t>
+  </si>
+  <si>
+    <t>MUSHROOM TIKKA</t>
+  </si>
+  <si>
+    <t>Button mushroom marinated &amp; grilled in clay oven</t>
+  </si>
+  <si>
+    <t>MASALA SOYA CHAMP</t>
+  </si>
+  <si>
+    <t>Soya been chop marinated with spice curd &amp; grilled in tandoor</t>
+  </si>
+  <si>
+    <t>TANDOORI SOYA CHAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soya been chop marinated with spice curd &amp; frilled in indian </t>
+  </si>
+  <si>
+    <t>PANEER PAPPADI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paneer cubes are marinated in curd based paste and then coated in roasted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUFFED MUSHROOM </t>
+  </si>
+  <si>
+    <t>A whole mushroom stuffed with paneer</t>
+  </si>
+  <si>
+    <t>TANDOORI ALOO CHATPATE</t>
+  </si>
+  <si>
+    <t>Baby potatoes marinated and finished in tandoor</t>
+  </si>
+  <si>
+    <t>HARA BHARA KEBEB</t>
+  </si>
+  <si>
+    <t>Vegetarian kebab made with patatoes and green vegetable spinach and peas</t>
+  </si>
+  <si>
+    <t>HONEY CHILLI POTATO</t>
+  </si>
+  <si>
+    <t>Finger style cutting potato toes in chilli &amp; honey</t>
+  </si>
+  <si>
+    <t>BUTTON MUSHROOM CHILLI GARLIC</t>
+  </si>
+  <si>
+    <t>250/275</t>
+  </si>
+  <si>
+    <t>Batter fried button mushroom tossed with spring onion,chilli paste and garlic</t>
+  </si>
+  <si>
+    <t>VEGETABLE SPRING ROLLS</t>
+  </si>
+  <si>
+    <t>Chinese vegetable stuffed with soya,garlic,filled in spring roll sheet</t>
+  </si>
+  <si>
+    <t>CRISPY CORN SALT &amp; PEPPER</t>
+  </si>
+  <si>
+    <t>American corn coated with batter,fried,tossed with onion garlic,carrots and chinese maggi seasiong sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEG MANCHURIAN </t>
+  </si>
+  <si>
+    <t>225/235</t>
+  </si>
+  <si>
+    <t>DRY/GRAVY</t>
+  </si>
+  <si>
+    <t>CHEESE CORN ROLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American corn coated with batter,fries,tossed with onion garlic and deep fried </t>
+  </si>
+  <si>
+    <t>FRENCH FRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIZZLING PANEER WITH ASSORTED VEGETABLES </t>
+  </si>
+  <si>
+    <t>Cubes of pan fried paneer tossed with assorted vegetables with mushroom and chilli sauce</t>
+  </si>
+  <si>
+    <t>STIR FRIED VEGETABLES &amp; CASHWNUTS WITH GARLIC</t>
+  </si>
+  <si>
+    <t>Assorted vegetables tossed with cash nuts,chopped garlic soya,finished with spring onion</t>
+  </si>
+  <si>
+    <t>BABY CORN AND MUSHROOM IN CHILLI GARLIC SAUCE</t>
+  </si>
+  <si>
+    <t>Stir fried baby corn and mushroom in chilli garlic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STIR FRIED SWEET"N"SOUR VEGETABLES </t>
+  </si>
+  <si>
+    <t>Assorted vegetables in sweet and sour sauce</t>
+  </si>
+  <si>
+    <t>COTTAGE CHEESE SHASHLIK SIZZLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grilled cottage cheese steak served with bbq sauce,herb rice &amp; garden charred vegetables </t>
+  </si>
+  <si>
+    <t>VEGETABLE SIZZLER</t>
+  </si>
+  <si>
+    <t>Vegetable steak served with charred vegetables,home fries &amp; creamy herb sauce</t>
+  </si>
+  <si>
+    <t>DAHI KE KEBAB</t>
+  </si>
+  <si>
+    <t>Hangled yoghurt in wrap of bread and fried it golden</t>
+  </si>
+  <si>
+    <t>VEG SEEKH KEBAB(TANDOORI)</t>
+  </si>
+  <si>
+    <t>Made with mix veggie and soya granules.these can grilled in charcoal grilled or oven grilled</t>
+  </si>
+  <si>
+    <t>CORN SEEKH KEBAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made with grated sweet corn and mashed potatoes to obtain firmer and better textured kebabs it is advisable to steam the potatoes </t>
+  </si>
+  <si>
+    <t>SUBZ SHAMI KEBAB</t>
+  </si>
+  <si>
+    <t>Vegetable kebabs are spiced with a coarse spice of mix of cloves,cinnamon,black peppercorns and red chillies,enriched with carrots and flavoured with chana dal</t>
+  </si>
+  <si>
+    <t>ASSORTED VEG PAKORA</t>
+  </si>
+  <si>
+    <t>Vegetable pakora recipe is an easy to make indian starter prepared with mixed vegetables,chickpea flour and carom seeds</t>
+  </si>
+  <si>
+    <t>PANEER PAKORA</t>
+  </si>
+  <si>
+    <t>Marinated paneer dipped in a better and deep fried</t>
+  </si>
+  <si>
+    <t>SABZ GALLAFI KEBAB</t>
+  </si>
+  <si>
+    <t>Kebab made with mixed veggie and soya granules. These can be grilled in a pan,charcoal grilled oven</t>
+  </si>
+  <si>
+    <t>KLM SHAKAHARI JUGALBANDI</t>
+  </si>
+  <si>
+    <t>Combination of vegetarian kebabs</t>
+  </si>
+  <si>
+    <t>CHILLI PANEER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An all time favourite </t>
+  </si>
+  <si>
+    <t>SZECHWAN CHILLI COTTAGE CHEESE</t>
+  </si>
+  <si>
+    <t>Cottage cheese tossed with sliced onion pepper and Szechwan sauce</t>
+  </si>
+  <si>
+    <t>CRISPY VEGETABLES IN SZECHWAN SAUCE</t>
+  </si>
+  <si>
+    <t>Crispy vegetables coasted with Szechwan specs,served dry</t>
+  </si>
+  <si>
+    <t>SEEKH KEBAB KHAAS</t>
+  </si>
+  <si>
+    <t>NON VEG</t>
+  </si>
+  <si>
+    <t>Finely minced lamb blended with our chef's own combination of herbs and spices roasted on charcoal embers and flavoured with hint of mint</t>
+  </si>
+  <si>
+    <t>MURG K PACHRE</t>
+  </si>
+  <si>
+    <t>Chicken wings cooked in chef special sauce</t>
+  </si>
+  <si>
+    <t>MURG TIKKA MASALEDAR</t>
+  </si>
+  <si>
+    <t>Marinated checken pieces in Indian masala and herbs and then served from tawa</t>
+  </si>
+  <si>
+    <t>MURG HARYALI TIKKA</t>
+  </si>
+  <si>
+    <t>Marinated boneless chicken pieces in green paste of mint,coriander,spinach and methi leaves</t>
+  </si>
+  <si>
+    <t>MURG MALAI KALI MIRCH</t>
+  </si>
+  <si>
+    <t>Tender chicken pieces deeped in black pepper flavoured-cashew gravy,makes</t>
+  </si>
+  <si>
+    <t>KLM JUGALBANDI(WITHOUT PRAWNS)</t>
+  </si>
+  <si>
+    <t>A combination of assorted non veg kebabs &amp; tikkas</t>
+  </si>
+  <si>
+    <t>CRISPY HONEY CHICKEN</t>
+  </si>
+  <si>
+    <t>Juliennes of chicken fried,tossed in honey chilli sauce</t>
+  </si>
+  <si>
+    <t>CHICKEN '65</t>
+  </si>
+  <si>
+    <t>Chicken '65 is a spicy,red deep fried chicken chunks usually served in snacks</t>
+  </si>
+  <si>
+    <t>GINGER GARLIC CHICKEN</t>
+  </si>
+  <si>
+    <t>Marinated with ginger,garlic,soya sauce and honey</t>
+  </si>
+  <si>
+    <t>CHICKEN SALT &amp; PEPPER</t>
+  </si>
+  <si>
+    <t>Chicken and cracked black pepper and pinch of salt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRY CHILLI CHICKEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All time favourite </t>
+  </si>
+  <si>
+    <t>FISH IN LEMON BUTTER SAUCE</t>
+  </si>
+  <si>
+    <t>Fish cooked in lemon butter flavoured sauce</t>
+  </si>
+  <si>
+    <t>CHILLI FISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish cubes tossed with onions and capsicum </t>
+  </si>
+  <si>
+    <t>LEMON FISH</t>
+  </si>
+  <si>
+    <t>Fish cooked in lemon crushed flavoured sauce</t>
+  </si>
+  <si>
+    <t>FISH AMRITSARI</t>
+  </si>
+  <si>
+    <t>Fish fried in amritsari style</t>
+  </si>
+  <si>
+    <t>MAHI TIKKA AJWANI</t>
+  </si>
+  <si>
+    <t>325/475</t>
+  </si>
+  <si>
+    <t>Chunks of fish marinated with flamed ajwain seeds,ginger and garlic and coriander yogurt barbecued</t>
+  </si>
+  <si>
+    <t>TANDOORI MURG(HALF/FULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your all time favourite </t>
+  </si>
+  <si>
+    <t>MURG TIKKA ACHARI</t>
+  </si>
+  <si>
+    <t>Boneless chicken flavoured with achari masala</t>
+  </si>
+  <si>
+    <t>MURG MALAI TIKKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tender pieces of boneless chicken marinated with cheese and fresh coriander </t>
+  </si>
+  <si>
+    <t>MURG AFGANI</t>
+  </si>
+  <si>
+    <t>"The king of kebabs"-succulent chicken marinated in yogurt,garlic paste and garam masala</t>
+  </si>
+  <si>
+    <t>MURG ZAFFRANI TIKKA</t>
+  </si>
+  <si>
+    <t>Chicken marinated in yogurt and spices and then served in saffron cashew nut paste sauce</t>
+  </si>
+  <si>
+    <t>MURG LAHSUNI TIKKA</t>
+  </si>
+  <si>
+    <t>Chicken marinated in spices and then served in garlic turmeric cream sauce</t>
+  </si>
+  <si>
+    <t>MURG KASTOORI TIKKA</t>
+  </si>
+  <si>
+    <t>Cut the chicken in to breasts in to long strips.add salt,lime juice,red chilli powder,turmeric powder to the chicken strips and rub well in to the flesh</t>
+  </si>
+  <si>
+    <t>MURG REHMI KEBAB</t>
+  </si>
+  <si>
+    <t>Made the pieces of boneless chicken in juicy mixture of curd,cream,cashew nuts and spices and grilled in oven</t>
+  </si>
+  <si>
+    <t>MURG PAGADI TIKKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken cooked in herbs and yoghurt marinated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLICED LEMON CHICKEN </t>
+  </si>
+  <si>
+    <t>Brush the chicken breasts with olive and sprinkle them liberally with saly &amp; pepper</t>
+  </si>
+  <si>
+    <t>FISH ACHARI TIKKA</t>
+  </si>
+  <si>
+    <t>Bite-sized pieces of fish filled are marinated in an assortment of spices</t>
+  </si>
+  <si>
+    <t>FISH AJWANI TIKKA</t>
+  </si>
+  <si>
+    <t>Fish cubes marinated with ajwain and finished in tanfoor</t>
+  </si>
+  <si>
+    <t>MAHI PUDINA TIKKA</t>
+  </si>
+  <si>
+    <t>Bone less fish pieces marinated in mint powder sauce and herbs and cooked in clay oven</t>
+  </si>
+  <si>
+    <t>FRIED FISH WITH TARTAR SAUCE</t>
+  </si>
+  <si>
+    <t>Fried fish made in conti herbs thime oregano,chilli flakes' served with tartar sauce</t>
+  </si>
+  <si>
+    <t>FISH SALT &amp; PEPPER</t>
+  </si>
+  <si>
+    <t>Fish and add cracked black pepper and pinch of salt</t>
+  </si>
+  <si>
+    <t>SZECHWAN FISH</t>
+  </si>
+  <si>
+    <t>Strips of fish tossed with Szechwan sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FISH SINGAPOREAN </t>
+  </si>
+  <si>
+    <t>Use economic frozen fish find coconut vinegar with marinate the fish</t>
+  </si>
+  <si>
+    <t>FISH FINGER</t>
+  </si>
+  <si>
+    <t>Finger cutting size dustred with bread crumbs and deep fried</t>
+  </si>
+  <si>
     <t>Dish name</t>
   </si>
   <si>
-    <t xml:space="preserve">Description </t>
+    <t>PANEER LABABDAR</t>
+  </si>
+  <si>
+    <t>Charcoal roasted cottage cheese cubes in a smooth tomato based gravy</t>
+  </si>
+  <si>
+    <t>PANEER CHAMAN</t>
+  </si>
+  <si>
+    <t>Cube size paneer cooked with fresh fenugreek</t>
+  </si>
+  <si>
+    <t>KADAI PANEER</t>
+  </si>
+  <si>
+    <t>PALAK PANEER</t>
+  </si>
+  <si>
+    <t>Cottage cheese in Spanish gravy</t>
+  </si>
+  <si>
+    <t>PANEER TIKKA BUTTER MASALA</t>
+  </si>
+  <si>
+    <t>Barbecued chunks of cottage cheese finished in tomato gravy</t>
+  </si>
+  <si>
+    <t>PANEER KHURCHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paneer,cooked in onion,aniseed and three types of bell pepper preparation </t>
+  </si>
+  <si>
+    <t>PANEER DO PYAZA</t>
+  </si>
+  <si>
+    <t>Paneer,cooked in semi dry gravy of double the amount of onions</t>
+  </si>
+  <si>
+    <t>PANEER KALI MIRCH</t>
+  </si>
+  <si>
+    <t>Paneer cubes with a flavour of black pepper</t>
+  </si>
+  <si>
+    <t>PANEER TAKA TAK</t>
+  </si>
+  <si>
+    <t>Paneer preparation with juliennes of onions and capsicum and kadai sauce flavoured with ketch up and mint</t>
+  </si>
+  <si>
+    <t>PANEER BHURJEE</t>
+  </si>
+  <si>
+    <t>Mashed paneer with onions tomato in indian spices</t>
+  </si>
+  <si>
+    <t>PANEER PASANDA</t>
+  </si>
+  <si>
+    <t>Paneer stuffed cooked in rick cashew gravy</t>
+  </si>
+  <si>
+    <t>KOFTA BAGH-E-BAHAR</t>
+  </si>
+  <si>
+    <t>Spinach dumpling stuffed with cottage cheese and served in spicy tomato gravy</t>
+  </si>
+  <si>
+    <t>GOBHI ALOO ADRAKI</t>
+  </si>
+  <si>
+    <t>Cauliflower and potato tossed gently with ginger and indian khada masala</t>
+  </si>
+  <si>
+    <t>DIWANI HANDI</t>
+  </si>
+  <si>
+    <t>A potpourri of garden fresh vegetables chanty steeped in spinach or cashew</t>
+  </si>
+  <si>
+    <t>PALAK MAKAI MASALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby spinach cooked with American corn kemels </t>
+  </si>
+  <si>
+    <t>MUSHROOM DO PYAZA</t>
+  </si>
+  <si>
+    <t>Button mushroom cooked in a semi dry gravy of double the amount of onions</t>
+  </si>
+  <si>
+    <t>MUTTER METHI MALAI</t>
+  </si>
+  <si>
+    <t>The methi and peas blend in very well with rich gravy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUM ALOO KASHMIRI </t>
+  </si>
+  <si>
+    <t>A typical Kashmiri preparation of baby potatoes</t>
+  </si>
+  <si>
+    <t>ALOO GOBHI ADRAKI</t>
+  </si>
+  <si>
+    <t>Aloo and Gobhi cooked in strong ginger flavour</t>
+  </si>
+  <si>
+    <t>JEERA ALOO</t>
+  </si>
+  <si>
+    <t>Dry aloo cooked with curminseed</t>
+  </si>
+  <si>
+    <t>ALOO GOBHI MASALA</t>
+  </si>
+  <si>
+    <t>VEGETABLE JALFREZI</t>
+  </si>
+  <si>
+    <t>mix vegetables in onion and tomato gravy</t>
+  </si>
+  <si>
+    <t>VEGETABLE MAKHANWALA</t>
+  </si>
+  <si>
+    <t>Mushroom cooked in buttered tomato gravy</t>
+  </si>
+  <si>
+    <t>KADAI MUSHROOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mushroom cooked in kadai </t>
+  </si>
+  <si>
+    <t>PALAK MUSHROOM</t>
+  </si>
+  <si>
+    <t>Mushroom cooked with spinach gravy,vegetable cooked in spicy sweet sauce</t>
+  </si>
+  <si>
+    <t>SUBZ NAVRATTAN KORMA</t>
+  </si>
+  <si>
+    <t>Cube cutting of mix veg,butter cocktail fruit and cooked with coconut powder and finished with cream and butter</t>
+  </si>
+  <si>
+    <t>MAKAI KHUMB MASALA</t>
+  </si>
+  <si>
+    <t>Corn,mushroom cooked in onion and tomato gravy</t>
+  </si>
+  <si>
+    <t>SHABNUM CURRY</t>
+  </si>
+  <si>
+    <t>Mushroom with peas vegetable in onion gravy</t>
+  </si>
+  <si>
+    <t>PINDI CHANA</t>
+  </si>
+  <si>
+    <t>Chick peas cooked in punjabi whole spices</t>
+  </si>
+  <si>
+    <t>DAL MAKHANI</t>
+  </si>
+  <si>
+    <t>Black lentils simmered with spices over night finished with cream &amp; butter</t>
+  </si>
+  <si>
+    <t>DAL TADKE WALI</t>
+  </si>
+  <si>
+    <t>Yellow lentil tempered with cumin asafoetida and hint of garlic</t>
+  </si>
+  <si>
+    <t>DAL PALAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black lentil cooked over night with tomato,fenugreek and butter </t>
+  </si>
+  <si>
+    <t>DAL PANCHMEL</t>
+  </si>
+  <si>
+    <t>Preparation of five varieties of mix dal</t>
+  </si>
+  <si>
+    <t>RAJMA RASHILA</t>
+  </si>
+  <si>
+    <t>Rajma cooked with butter and tomatoes yo creamy texture</t>
+  </si>
+  <si>
+    <t>VEG LASAGNE</t>
+  </si>
+  <si>
+    <t>Exotic minced vegetable layered with pasta sheets &amp; baked</t>
+  </si>
+  <si>
+    <t>VEGETABLE SWEET &amp; SOUR SAUCE</t>
+  </si>
+  <si>
+    <t>Vegetable bounded in sweet &amp; sour sauce</t>
+  </si>
+  <si>
+    <t>VEGETABLE MANCHURIAN GRAVY</t>
+  </si>
+  <si>
+    <t>VEGETABLE IN HOT GARLIC SAUCE</t>
+  </si>
+  <si>
+    <t>Vegetable cooked in garlic sauce</t>
+  </si>
+  <si>
+    <t>VEGETABLE IN THAI CURRY</t>
+  </si>
+  <si>
+    <t>Green/Yello/Red</t>
+  </si>
+  <si>
+    <t>MUSHROOM IN BUTTER GARLIC SAUCE</t>
+  </si>
+  <si>
+    <t>Button mushroom tossed in butter garlic sauce</t>
+  </si>
+  <si>
+    <t>KLM SPECIAL BUTTER CHICKEN</t>
+  </si>
+  <si>
+    <t>Oven roasted white chicken cooked in green cardamom &amp; tender chicken pieces with buttered tomato with honey flavoured cream</t>
+  </si>
+  <si>
+    <t>KADAHI MURG</t>
+  </si>
+  <si>
+    <t>Chicken pieces cooked in white whole spices along with tomato pepper gravy</t>
+  </si>
+  <si>
+    <t>MURG TIKKA LABABDAR</t>
+  </si>
+  <si>
+    <t>A delicacy made os charcoal roasted tikka served in tomato and onion gravy,finished with honey,butter and cream</t>
+  </si>
+  <si>
+    <t>MURG KALI MIRCH</t>
+  </si>
+  <si>
+    <t>Chicken cooked in smooth white gravy with freshly ground pepper corn</t>
+  </si>
+  <si>
+    <t>MURG HANDI LAZIZ</t>
+  </si>
+  <si>
+    <t>Chicken pieces cooked in onion and cashew gravy dressing with blanched cabbage</t>
+  </si>
+  <si>
+    <t>DHANIYA MURG</t>
+  </si>
+  <si>
+    <t>Chicken curry with a coriander</t>
+  </si>
+  <si>
+    <t>MURG ANARKALI</t>
+  </si>
+  <si>
+    <t>Chicken in onion tomato with pomegranate flavour</t>
+  </si>
+  <si>
+    <t>METHI MURG MALAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken cuts cooked in white gravy with fenugreek </t>
+  </si>
+  <si>
+    <t>CHICKEN KORMA</t>
+  </si>
+  <si>
+    <t>Chicken cooked in cashew gravy</t>
+  </si>
+  <si>
+    <t>CHICKEN DO PYAZA</t>
+  </si>
+  <si>
+    <t>Chicken cooked onion,tomato and capsicum</t>
+  </si>
+  <si>
+    <t>CHILLI CHICKEN GRAVY</t>
+  </si>
+  <si>
+    <t>THAI CHICKEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (RED/YELLOW/GREEN SAUCE)Chicken simmered in thai curries with coconut milk</t>
+  </si>
+  <si>
+    <t>MUTTON RARA</t>
+  </si>
+  <si>
+    <t>Mutton cooked in indian spices and onion</t>
+  </si>
+  <si>
+    <t>MUTTON SAAG WALA</t>
+  </si>
+  <si>
+    <t>Curry cut mutton cooked with mustard and spinach</t>
+  </si>
+  <si>
+    <t>KADHAI GOSHT</t>
+  </si>
+  <si>
+    <t>Lamb chunks cooked with minced and onions</t>
   </si>
   <si>
     <t>NIZAAMI TARKARI BIRYANI</t>
@@ -97,15 +846,9 @@
     <t>FRIED RICE</t>
   </si>
   <si>
-    <t>Sauté rice with chopped vegetables</t>
-  </si>
-  <si>
     <t>VEGETABLE GINGER FRIED RICE</t>
   </si>
   <si>
-    <t>Sauté ginger flavoured rice</t>
-  </si>
-  <si>
     <t>ONION MINT PULAO</t>
   </si>
   <si>
@@ -115,7 +858,7 @@
     <t>HYDERABAD DUM BIRYANI</t>
   </si>
   <si>
-    <t>NON VEG</t>
+    <t>260/90</t>
   </si>
   <si>
     <t>Chicken/Mutton</t>
@@ -130,6 +873,9 @@
     <t>DAHI TADKE WALA/PLAIN</t>
   </si>
   <si>
+    <t>120/90</t>
+  </si>
+  <si>
     <t>CHOICE OF RAITA</t>
   </si>
   <si>
@@ -148,9 +894,6 @@
     <t>HAKKA NOODLES</t>
   </si>
   <si>
-    <t>EGG/CHICKEN</t>
-  </si>
-  <si>
     <t>CHOICE OF PASTA</t>
   </si>
   <si>
@@ -214,6 +957,9 @@
     <t>COLD COFFEE</t>
   </si>
   <si>
+    <t>120/150</t>
+  </si>
+  <si>
     <t>Plain/with ice cream</t>
   </si>
   <si>
@@ -277,16 +1023,13 @@
     <t>MURG TIKKA SALAD</t>
   </si>
   <si>
-    <t>260-290</t>
-  </si>
-  <si>
-    <t>120-90</t>
-  </si>
-  <si>
-    <t>250-275</t>
-  </si>
-  <si>
-    <t>120-150</t>
+    <t>EGG</t>
+  </si>
+  <si>
+    <t>Saute rice with chopped vegetables</t>
+  </si>
+  <si>
+    <t>Saute ginger flavoured rice</t>
   </si>
 </sst>
 </file>
@@ -343,10 +1086,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -739,6 +1485,9 @@
         <v>130</v>
       </c>
     </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+    </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -825,6 +1574,231 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -833,7 +1807,1892 @@
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="135.5703125" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>275</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>275</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>275</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>265</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>275</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>275</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>275</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>275</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>250</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>275</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>265</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>265</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>260</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>225</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>225</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>275</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>260</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>260</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>260</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>260</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>260</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>260</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>265</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2">
+        <v>265</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>265</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>265</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>240</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2">
+        <v>265</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>265</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>425</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2">
+        <v>260</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2">
+        <v>260</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2">
+        <v>230</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="4">
+        <v>400</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="4">
+        <v>395</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="4">
+        <v>395</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="4">
+        <v>395</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="4">
+        <v>395</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="4">
+        <v>495</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="4">
+        <v>375</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A45" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="4">
+        <v>375</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A46" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="4">
+        <v>375</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="4">
+        <v>375</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A48" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="4">
+        <v>375</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="4">
+        <v>375</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="4">
+        <v>375</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="4">
+        <v>375</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="4">
+        <v>375</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="4">
+        <v>395</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="4">
+        <v>395</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="4">
+        <v>395</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A57" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="4">
+        <v>395</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A58" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="4">
+        <v>395</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A59" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="4">
+        <v>395</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A60" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="4">
+        <v>395</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A61" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="4">
+        <v>395</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A62" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="4">
+        <v>395</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A63" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="4">
+        <v>375</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="4">
+        <v>375</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A65" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="4">
+        <v>375</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A66" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="4">
+        <v>375</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A67" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="4">
+        <v>375</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A68" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="4">
+        <v>375</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A69" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="4">
+        <v>375</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A70" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="4">
+        <v>375</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A71" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="4">
+        <v>375</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="111.140625" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>250</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>250</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>250</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>250</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>250</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>250</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>250</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>250</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>250</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>250</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>250</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>240</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>210</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>210</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>210</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>250</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>250</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>210</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>210</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>210</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>210</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>210</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>250</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>250</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>250</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2">
+        <v>250</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>210</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>210</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>240</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2">
+        <v>210</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>210</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>210</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2">
+        <v>240</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2">
+        <v>250</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2">
+        <v>210</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>210</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2">
+        <v>240</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2">
+        <v>240</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="2">
+        <v>395</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="2">
+        <v>395</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="2">
+        <v>395</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="2">
+        <v>395</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="2">
+        <v>395</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A47" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="2">
+        <v>395</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="2">
+        <v>395</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="2">
+        <v>395</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="2">
+        <v>395</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="2">
+        <v>395</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="2">
+        <v>395</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="2">
+        <v>425</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="2">
+        <v>425</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="2">
+        <v>425</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -846,7 +3705,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -855,12 +3714,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -869,12 +3728,12 @@
         <v>190</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -883,12 +3742,12 @@
         <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -897,12 +3756,12 @@
         <v>140</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -911,12 +3770,12 @@
         <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -925,12 +3784,12 @@
         <v>190</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -941,7 +3800,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -952,58 +3811,58 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>275</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2">
         <v>240</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3">
+        <v>89</v>
+      </c>
+      <c r="C11" s="2">
         <v>260</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
+      <c r="D11" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3">
+        <v>89</v>
+      </c>
+      <c r="C12" s="2">
         <v>260</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
+      <c r="D12" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1091,16 +3950,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1112,7 +3969,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1121,23 +3978,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>282</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -1146,438 +4003,7 @@
         <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D102"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="84" customWidth="1"/>
-    <col min="5" max="6" width="24.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>250</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>70</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>30</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1670,23 +4096,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="76.85546875" customWidth="1"/>
-    <col min="5" max="6" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="84" customWidth="1"/>
+    <col min="5" max="6" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1695,129 +4121,112 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>284</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>286</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>45</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>287</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>331</v>
       </c>
       <c r="C4" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>287</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2">
-        <v>70</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>288</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>86</v>
+      <c r="C6" s="2">
+        <v>250</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>290</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>45</v>
+        <v>250</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>288</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2">
-        <v>60</v>
+        <v>275</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>150</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
+        <v>275</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -1897,6 +4306,7 @@
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
     <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1909,19 +4319,19 @@
   </sheetPr>
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1930,51 +4340,112 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>292</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>293</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>294</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>130</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>295</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
-        <v>150</v>
+      <c r="C5" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2064,141 +4535,123 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="76.85546875" customWidth="1"/>
+    <col min="5" max="6" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>110</v>
+      <c r="A2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>130</v>
+      <c r="A3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>140</v>
+      <c r="A4" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>140</v>
+      <c r="A5" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>140</v>
+      <c r="A6" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>130</v>
+      <c r="A7" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>75</v>
+      <c r="A8" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>140</v>
+      <c r="A9" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
+      <c r="A10" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>220</v>
+      <c r="A11" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="2">
+        <v>150</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2282,7 +4735,166 @@
     <row r="99" ht="15.75" customHeight="1"/>
     <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="6" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/MenuData/Menu.xlsx
+++ b/src/MenuData/Menu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="17" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="17" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Shorba and Soups" sheetId="1" r:id="rId1"/>
@@ -1145,9 +1145,6 @@
     <t>CARLSBURG LIGHT/STRONG 650ML</t>
   </si>
   <si>
-    <t>TUBORG LIGHT.STRONG 650ML</t>
-  </si>
-  <si>
     <t>KOTSBURG 650ML</t>
   </si>
   <si>
@@ -1461,6 +1458,9 @@
   </si>
   <si>
     <t>P/A Juice,Coconut Syrup, Coconut</t>
+  </si>
+  <si>
+    <t>TUBORG LIGHT/STRONG 650ML</t>
   </si>
 </sst>
 </file>
@@ -2206,7 +2206,7 @@
         <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2220,7 +2220,7 @@
         <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2234,7 +2234,7 @@
         <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2248,7 +2248,7 @@
         <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2262,7 +2262,7 @@
         <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2276,7 +2276,7 @@
         <v>225</v>
       </c>
       <c r="D7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2290,7 +2290,7 @@
         <v>225</v>
       </c>
       <c r="D8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2304,7 +2304,7 @@
         <v>225</v>
       </c>
       <c r="D9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2318,7 +2318,7 @@
         <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2332,7 +2332,7 @@
         <v>225</v>
       </c>
       <c r="D11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -2381,7 +2381,7 @@
         <v>350</v>
       </c>
       <c r="D2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2395,7 +2395,7 @@
         <v>350</v>
       </c>
       <c r="D3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2409,7 +2409,7 @@
         <v>350</v>
       </c>
       <c r="D4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2423,7 +2423,7 @@
         <v>350</v>
       </c>
       <c r="D5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2437,7 +2437,7 @@
         <v>350</v>
       </c>
       <c r="D6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2451,7 +2451,7 @@
         <v>350</v>
       </c>
       <c r="D7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2465,7 +2465,7 @@
         <v>350</v>
       </c>
       <c r="D8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2479,7 +2479,7 @@
         <v>350</v>
       </c>
       <c r="D9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2493,7 +2493,7 @@
         <v>350</v>
       </c>
       <c r="D10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2507,7 +2507,7 @@
         <v>350</v>
       </c>
       <c r="D11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2521,7 +2521,7 @@
         <v>350</v>
       </c>
       <c r="D12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -2570,7 +2570,7 @@
         <v>575</v>
       </c>
       <c r="D2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2584,7 +2584,7 @@
         <v>575</v>
       </c>
       <c r="D3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -2622,114 +2622,114 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -2766,170 +2766,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -2967,170 +2967,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3167,44 +3167,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3242,30 +3242,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>392</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>393</v>
-      </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3302,30 +3302,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3588,72 +3588,72 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" t="s">
         <v>382</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D6" t="s">
-        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -3750,56 +3750,90 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D12"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>270</v>
+      </c>
+    </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>350</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>270</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -3810,56 +3844,23 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>250</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>371</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>372</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
         <v>140</v>
       </c>
     </row>
@@ -3915,7 +3916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
